--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,23 +710,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E8" s="3">
         <v>82600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,23 +742,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E9" s="3">
         <v>45300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +822,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +961,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E17" s="3">
         <v>72500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +991,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,14 +1049,14 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,23 +1069,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>14900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1133,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,23 +1165,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1229,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1261,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,14 +1433,14 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,23 +1453,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1517,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,22 +1616,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E41" s="3">
         <v>45500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33900</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1678,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E43" s="3">
         <v>56100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,23 +1710,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E44" s="3">
         <v>73700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>73600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>69600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1742,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E46" s="3">
         <v>178400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>168300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>115200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +1838,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E48" s="3">
         <v>36200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,23 +1870,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E49" s="3">
         <v>121900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>125900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1902,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,23 +1966,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>341300</v>
+      </c>
+      <c r="E54" s="3">
         <v>341400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>335400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2092,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E57" s="3">
         <v>15800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,23 +2154,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
         <v>22200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E60" s="3">
         <v>38100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,23 +2250,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E66" s="3">
         <v>63700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2552,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E72" s="3">
         <v>13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2680,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>279900</v>
+      </c>
+      <c r="E76" s="3">
         <v>277700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>268800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2781,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2641,14 +2839,14 @@
         <v>4700</v>
       </c>
       <c r="E83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3019,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,23 +3067,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,23 +3161,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3335,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>31100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,26 +714,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E8" s="3">
         <v>64500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,26 +749,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E9" s="3">
         <v>35800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,26 +784,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E10" s="3">
         <v>28700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,26 +836,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,26 +988,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E17" s="3">
         <v>63200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,26 +1021,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1073,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,14 +1086,14 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,26 +1106,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E21" s="3">
         <v>6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,26 +1176,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,26 +1211,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,26 +1281,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,26 +1316,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1491,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,14 +1506,14 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,26 +1526,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,26 +1596,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,25 +1703,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E41" s="3">
         <v>60800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33900</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,26 +1771,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E43" s="3">
         <v>42400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1713,26 +1806,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E44" s="3">
         <v>74300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>73700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>73600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>69600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,26 +1841,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,26 +1876,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E46" s="3">
         <v>179800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>178400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>168300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,26 +1946,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E48" s="3">
         <v>36400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,26 +1981,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E49" s="3">
         <v>118000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>125900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,26 +2086,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,26 +2156,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E54" s="3">
         <v>341300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>341400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>335400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>260800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,26 +2223,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E57" s="3">
         <v>16000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,8 +2291,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2166,17 +2303,17 @@
         <v>20300</v>
       </c>
       <c r="E59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,26 +2326,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E60" s="3">
         <v>36300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,26 +2396,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E62" s="3">
         <v>25000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,26 +2536,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E66" s="3">
         <v>61400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,23 +2726,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,26 +2866,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E76" s="3">
         <v>279900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>277700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>268800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,26 +2976,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,26 +3028,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
         <v>4700</v>
       </c>
       <c r="F83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,26 +3236,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,26 +3288,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,26 +3391,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>31100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,26 +3651,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,29 +718,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E8" s="3">
         <v>60800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,29 +756,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E9" s="3">
         <v>31800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26700</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,29 +794,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E10" s="3">
         <v>29000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,20 +860,20 @@
         <v>1500</v>
       </c>
       <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,29 +1015,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E17" s="3">
         <v>56500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,29 +1051,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,13 +1107,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1089,14 +1123,14 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,29 +1143,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E21" s="3">
         <v>8500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,29 +1219,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,29 +1257,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,29 +1333,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,29 +1371,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,13 +1561,16 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1509,14 +1579,14 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,29 +1599,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,29 +1675,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,28 +1790,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E41" s="3">
         <v>56300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33900</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,29 +1864,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E43" s="3">
         <v>33500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,29 +1902,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E44" s="3">
         <v>92000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>74300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>73700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,29 +1940,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1978,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E46" s="3">
         <v>190900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>179800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>178400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>168300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>115200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,29 +2054,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E48" s="3">
         <v>35900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,29 +2092,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E49" s="3">
         <v>114600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>118000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>125900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,29 +2206,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>354400</v>
+      </c>
+      <c r="E54" s="3">
         <v>348700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>341300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>341400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>335400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>260800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,29 +2354,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E57" s="3">
         <v>20200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,29 +2428,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="E59" s="3">
         <v>20300</v>
       </c>
       <c r="F59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G59" s="3">
         <v>22200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E60" s="3">
         <v>40400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,29 +2542,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E66" s="3">
         <v>64900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +2900,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,29 +3052,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>289300</v>
+      </c>
+      <c r="E76" s="3">
         <v>283800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>279900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>277700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>268800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>227300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3171,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3038,20 +3237,20 @@
         <v>4200</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
         <v>4700</v>
       </c>
       <c r="G83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,29 +3509,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,29 +3621,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>31100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,29 +3903,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,32 +722,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E8" s="3">
         <v>70800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,32 +763,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,32 +804,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E10" s="3">
         <v>33100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
         <v>1500</v>
       </c>
       <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E17" s="3">
         <v>65500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,32 +1081,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,16 +1141,17 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1126,14 +1160,14 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,32 +1180,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>10100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,32 +1303,35 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,16 +1631,19 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1582,14 +1652,14 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1877,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>32600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33900</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,32 +1957,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E43" s="3">
         <v>49800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,32 +1998,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E44" s="3">
         <v>105000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>92000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>74300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>73600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>69600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,32 +2039,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E46" s="3">
         <v>198500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>179800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>178400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>168300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>115200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,32 +2162,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E48" s="3">
         <v>37200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,32 +2203,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E49" s="3">
         <v>111300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>114600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>118000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>125900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,32 +2326,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E54" s="3">
         <v>354400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>348700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>341300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>341400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>335400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>260800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,32 +2485,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E57" s="3">
         <v>20100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,32 +2565,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
         <v>21100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>20300</v>
       </c>
       <c r="F59" s="3">
         <v>20300</v>
       </c>
       <c r="G59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H59" s="3">
         <v>22200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
         <v>41200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,32 +2688,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E66" s="3">
         <v>65200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E72" s="3">
         <v>22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,32 +3238,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E76" s="3">
         <v>289300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>283800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>279900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>277700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>268800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>227300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,20 +3439,20 @@
         <v>4200</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="G83" s="3">
         <v>4700</v>
       </c>
       <c r="H83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,23 +3740,23 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,32 +3851,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>31100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>AOUT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +725,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E8" s="3">
         <v>70100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,35 +769,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E9" s="3">
         <v>38000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,35 +813,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E10" s="3">
         <v>32100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +877,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1500</v>
       </c>
       <c r="F12" s="3">
         <v>1500</v>
       </c>
       <c r="G12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,31 +963,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>67800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E17" s="3">
         <v>65400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1110,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,19 +1174,20 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1163,14 +1196,14 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1216,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E21" s="3">
         <v>9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1304,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1348,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,19 +1700,22 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1655,14 +1724,14 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,34 +1963,35 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33900</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,35 +2049,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E43" s="3">
         <v>46100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,35 +2093,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E44" s="3">
         <v>119600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>74300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>73700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>73600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>69600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,35 +2137,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E46" s="3">
         <v>198100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>198500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>190900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>179800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>178400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>168300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,35 +2269,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E48" s="3">
         <v>37900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,35 +2313,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E49" s="3">
         <v>108100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>111300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>114600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>118000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>121900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>125900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2445,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E54" s="3">
         <v>351400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>348700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>341300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>341400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>335400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>260800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2615,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2657,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,35 +2701,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>20300</v>
       </c>
       <c r="G59" s="3">
         <v>20300</v>
       </c>
       <c r="H59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I59" s="3">
         <v>22200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,13 +2789,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>24700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2691,35 +2833,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E62" s="3">
         <v>23600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E66" s="3">
         <v>64500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3247,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E72" s="3">
         <v>26300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3423,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E76" s="3">
         <v>286900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>289300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>283800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>279900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>277700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>268800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>227300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,13 +3624,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
         <v>4200</v>
@@ -3442,20 +3640,20 @@
         <v>4200</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3">
         <v>4700</v>
       </c>
       <c r="I83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,35 +3950,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>900</v>
       </c>
       <c r="E91" s="3">
         <v>-1700</v>
       </c>
       <c r="F91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4080,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>31100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>AOUT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,38 +729,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E8" s="3">
         <v>45900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>60800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,38 +776,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E9" s="3">
         <v>25800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,38 +823,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E10" s="3">
         <v>20100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1500</v>
       </c>
       <c r="G12" s="3">
         <v>1500</v>
       </c>
       <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,17 +983,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>67800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1012,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E17" s="3">
         <v>116700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,38 +1140,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-70800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,22 +1208,23 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1199,14 +1233,14 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,38 +1253,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-66200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,38 +1394,41 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>6100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-76700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,22 +1770,25 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1727,14 +1797,14 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-76700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-76700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,37 +2050,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>19500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33900</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,38 +2142,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E43" s="3">
         <v>30100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>56100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,38 +2189,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E44" s="3">
         <v>121700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>119600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>92000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>74300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>73700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>73600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,38 +2236,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E46" s="3">
         <v>179800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>198100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>198500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>190900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>179800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>178400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>168300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,38 +2377,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E48" s="3">
         <v>34500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,38 +2424,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E49" s="3">
         <v>63200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>108100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>111300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>114600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>118000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>121900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>125900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E54" s="3">
         <v>277800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>351400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>348700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>341300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>341400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>335400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>260800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E59" s="3">
         <v>13400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>20300</v>
       </c>
       <c r="H59" s="3">
         <v>20300</v>
       </c>
       <c r="I59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J59" s="3">
         <v>22200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E60" s="3">
         <v>27000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,17 +2932,20 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E61" s="3">
         <v>24700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2836,38 +2979,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E62" s="3">
         <v>23100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E66" s="3">
         <v>74800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>65200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,35 +3421,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E76" s="3">
         <v>203000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>286900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>289300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>283800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>279900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>277700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>268800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>227300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-76700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,16 +3823,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>4400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4200</v>
       </c>
       <c r="F83" s="3">
         <v>4200</v>
@@ -3643,20 +3842,20 @@
         <v>4200</v>
       </c>
       <c r="H83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="I83" s="3">
         <v>4700</v>
       </c>
       <c r="J83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,38 +4171,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1700</v>
       </c>
       <c r="F91" s="3">
         <v>-1700</v>
       </c>
       <c r="G91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,38 +4310,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>17400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>31100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>AOUT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,44 +734,50 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>54400</v>
+      </c>
+      <c r="F8" s="3">
         <v>43700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>45900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>70100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>70800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>60800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>64500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>82600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>79100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>50500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,44 +787,50 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F9" s="3">
         <v>24600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>25800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>38000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>37700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>35800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>45300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>42000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>26700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,44 +840,50 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F10" s="3">
         <v>19100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>20100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>32100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>33100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>29000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>28700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>37300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>37100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +893,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,44 +918,46 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>1500</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,23 +1020,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>67800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,11 +1055,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1033,8 +1073,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1126,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1148,46 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F17" s="3">
         <v>49200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>116700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>65400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>65500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>56500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>63200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>72500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>69500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>48000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,44 +1197,50 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-70800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1250,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,44 +1275,46 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,44 +1324,50 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-66200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>10100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>8500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1377,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,44 +1430,50 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-70600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,44 +1483,50 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1536,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1589,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-76700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1642,50 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-76700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1695,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,44 +1907,50 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1960,50 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-76700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +2013,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +2066,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-76700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2119,55 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2177,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,43 +2223,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>32600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>56300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>60800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>45500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2272,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,44 +2325,50 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F43" s="3">
         <v>25000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>30100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>46100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>49800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>42400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>56100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>58000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>42100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,44 +2378,50 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>111400</v>
+      </c>
+      <c r="F44" s="3">
         <v>120600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>121700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>119600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>105000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>92000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>74300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>73700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>73600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>69600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,44 +2431,50 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,44 +2484,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>172900</v>
+      </c>
+      <c r="F46" s="3">
         <v>173900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>179800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>198100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>198500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>190900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>179800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>178400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>168300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>115200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2537,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,44 +2590,50 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F48" s="3">
         <v>35800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>34500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>37900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>37200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>35900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>36400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>36200</v>
       </c>
       <c r="K48" s="3">
         <v>36400</v>
       </c>
       <c r="L48" s="3">
+        <v>36200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>36400</v>
+      </c>
+      <c r="N48" s="3">
         <v>12300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,44 +2643,50 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F49" s="3">
         <v>60700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>63200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>108100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>111300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>114600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>118000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>121900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>125900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>129700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2696,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,44 +2802,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,44 +2908,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>266500</v>
+      </c>
+      <c r="F54" s="3">
         <v>270700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>277800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>351400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>354400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>348700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>341300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>341400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>335400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>260800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,44 +3007,46 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>13600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>20500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>20100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>16000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>15100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +3056,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,44 +3109,50 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F59" s="3">
         <v>15100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>22200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,44 +3162,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>27000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>40900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>41200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>40400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>36300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>38100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>40700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>31000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,23 +3215,29 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>19600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G61" s="3">
         <v>24700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2982,44 +3268,50 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F62" s="3">
         <v>24800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>23100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>24000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>24400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>25600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,44 +3480,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F66" s="3">
         <v>72900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>74800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>64500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>65200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>64900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>61400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>63700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>66600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>33400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,41 +3766,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-56000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-50400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>26300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,44 +3978,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>198800</v>
+      </c>
+      <c r="F76" s="3">
         <v>197800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>203000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>286900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>289300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>283800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>279900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>277700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>268800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>227300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +4084,55 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +4142,50 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-76700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4195,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,44 +4220,46 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
         <v>4200</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H83" s="3">
         <v>4200</v>
       </c>
       <c r="I83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4269,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,44 +4534,50 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4587,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,43 +4612,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-900</v>
       </c>
       <c r="K91" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-900</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4661,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,28 +4767,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1100</v>
       </c>
       <c r="J94" s="3">
         <v>-1000</v>
@@ -4345,11 +4805,11 @@
       <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1000</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4820,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,44 +5053,50 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>17400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>31100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +5106,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,44 +5159,50 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>33900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +5210,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>AOUT</t>
   </si>
@@ -1155,8 +1155,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>53900</v>
       </c>
       <c r="E17" s="3">
         <v>54600</v>
@@ -1208,8 +1208,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
@@ -1282,8 +1282,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1335,8 +1335,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1300</v>
       </c>
       <c r="E21" s="3">
         <v>4300</v>
@@ -1600,8 +1600,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
@@ -1653,8 +1653,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
@@ -1918,8 +1918,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1971,8 +1971,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
@@ -2077,8 +2077,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
@@ -2655,7 +2655,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12300</v>
+        <v>55000</v>
       </c>
       <c r="E49" s="3">
         <v>58100</v>
@@ -3227,7 +3227,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="E61" s="3">
         <v>19600</v>
@@ -4153,8 +4153,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
@@ -4620,25 +4620,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
-        <v>-600</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-1600</v>
       </c>
       <c r="G91" s="3">
-        <v>900</v>
+        <v>-1900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1700</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,47 +740,50 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E8" s="3">
         <v>50900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>70100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>70800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,47 +796,50 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,47 +852,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +932,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
         <v>1600</v>
       </c>
       <c r="F12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1500</v>
       </c>
       <c r="J12" s="3">
         <v>1500</v>
       </c>
       <c r="K12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,13 +1042,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1040,12 +1059,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>67800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1080,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E17" s="3">
         <v>53900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,47 +1229,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-70800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1310,14 +1343,14 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1363,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-66200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,47 +1531,50 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-76700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-76700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,22 +1991,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1946,14 +2015,14 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-76700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-76700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,46 +2310,47 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33900</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2364,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,47 +2420,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E43" s="3">
         <v>26600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,47 +2476,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E44" s="3">
         <v>105500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>121700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>119600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>74300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>73700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>73600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>69600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,47 +2532,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E46" s="3">
         <v>163400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>172900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>173900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>179800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>190900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>178400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>168300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,47 +2700,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E48" s="3">
         <v>34400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,47 +2756,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E49" s="3">
         <v>55000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>63200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>108100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>111300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>114600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>118000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>121900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>125900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,35 +2939,35 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E54" s="3">
         <v>253200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>266500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>270700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>277800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>351400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>348700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>341300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>341400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>335400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>260800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,47 +3138,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,47 +3248,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>14000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>20300</v>
       </c>
       <c r="K59" s="3">
         <v>20300</v>
       </c>
       <c r="L59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="M59" s="3">
         <v>22200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,26 +3360,29 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>9600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>19600</v>
       </c>
       <c r="F61" s="3">
         <v>19600</v>
       </c>
       <c r="G61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H61" s="3">
         <v>24700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3274,47 +3416,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E62" s="3">
         <v>24300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E66" s="3">
         <v>58000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3942,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4166,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E76" s="3">
         <v>195200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>198800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>197800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>203000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>286900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>289300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>283800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>279900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>277700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>268800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>227300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-76700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,25 +4419,26 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4200</v>
       </c>
       <c r="I83" s="3">
         <v>4200</v>
@@ -4249,20 +4447,20 @@
         <v>4200</v>
       </c>
       <c r="K83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="L83" s="3">
         <v>4700</v>
       </c>
       <c r="M83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>18100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,47 +4833,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1900</v>
       </c>
       <c r="H91" s="3">
         <v>-1900</v>
       </c>
       <c r="I91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>
       </c>
       <c r="L91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +4999,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>31100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AOUT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>AOUT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,50 +744,53 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E8" s="3">
         <v>42200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>70100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,50 +803,53 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E9" s="3">
         <v>23100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,50 +862,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E10" s="3">
         <v>19100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +946,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>1600</v>
       </c>
       <c r="G12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1500</v>
       </c>
       <c r="K12" s="3">
         <v>1500</v>
       </c>
       <c r="L12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,16 +1062,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1062,12 +1082,12 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>67800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1103,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E17" s="3">
         <v>46200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>116700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,50 +1259,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-70800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,34 +1343,35 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1346,14 +1380,14 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,50 +1400,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-66200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-70600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,50 +1577,53 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-76700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-76700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,34 +2049,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2018,14 +2088,14 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-76700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-76700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,49 +2397,50 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33900</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,50 +2513,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E43" s="3">
         <v>28100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,50 +2572,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E44" s="3">
         <v>99700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>120600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>121700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>119600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>74300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>73700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>73600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>69600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,50 +2631,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,50 +2690,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E46" s="3">
         <v>157600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>172900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>173900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>179800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>198500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>190900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>178400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>168300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,50 +2808,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E48" s="3">
         <v>33700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,50 +2867,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E49" s="3">
         <v>52000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>60700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>63200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>108100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>111300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>114600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>118000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>121900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>125900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>129700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,13 +3044,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2942,35 +3062,35 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E54" s="3">
         <v>243600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>253200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>266500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>270700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>277800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>351400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>354400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>348700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>341300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>341400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>335400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>260800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,50 +3269,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3326,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>20300</v>
       </c>
       <c r="L59" s="3">
         <v>20300</v>
       </c>
       <c r="M59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="N59" s="3">
         <v>22200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,50 +3444,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E60" s="3">
         <v>23000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,29 +3503,32 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>4600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>19600</v>
       </c>
       <c r="G61" s="3">
         <v>19600</v>
       </c>
       <c r="H61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I61" s="3">
         <v>24700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3419,50 +3562,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,50 +3798,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E66" s="3">
         <v>51700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>72900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,47 +4116,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,50 +4352,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E76" s="3">
         <v>191900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>195200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>198800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>197800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>203000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>286900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>289300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>283800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>279900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>277700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>268800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>227300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-76700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4429,19 +4628,19 @@
         <v>4000</v>
       </c>
       <c r="E83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4200</v>
       </c>
       <c r="J83" s="3">
         <v>4200</v>
@@ -4450,20 +4649,20 @@
         <v>4200</v>
       </c>
       <c r="L83" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="M83" s="3">
         <v>4700</v>
       </c>
       <c r="N83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,50 +5054,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1000</v>
       </c>
       <c r="L91" s="3">
         <v>-1000</v>
       </c>
       <c r="M91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,50 +5229,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>31100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
